--- a/src/keywords.xlsx
+++ b/src/keywords.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E9237-5E13-9F48-AB4D-DF68F0EA3D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792DD72-5717-D646-B7DF-379E18B1FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21740" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="630">
   <si>
     <t>poème fête des mères maternelle</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>0.10,0.10,0.35,0.23,0.10,0.07,0.03,0.02,0.04,0.04,0.04,0.03</t>
-  </si>
-  <si>
-    <t>poeme eroti</t>
   </si>
   <si>
     <t>0.30,0.45,0.36,0.36,0.36,0.24,0.36,1.00,1.00,1.00,1.00,1.00</t>
@@ -2231,7 +2228,7 @@
   <dimension ref="A1:AG301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2254,103 +2251,103 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -2683,7 +2680,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -2716,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1">
         <v>75</v>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -2757,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="1">
         <v>90</v>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -2798,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1">
         <v>75</v>
@@ -2806,7 +2803,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2839,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="1">
         <v>90</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -2880,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="1">
         <v>75</v>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2921,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1">
         <v>90</v>
@@ -2929,7 +2926,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -2962,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1">
         <v>90</v>
@@ -2970,7 +2967,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3003,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17" s="1">
         <v>90</v>
@@ -3011,7 +3008,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -3044,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="1">
         <v>75</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -3085,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="1">
         <v>90</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -3120,13 +3117,13 @@
         <v>7420000</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M20" s="1">
         <v>90</v>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -3161,13 +3158,13 @@
         <v>2090000</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="1">
         <v>75</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -3202,13 +3199,13 @@
         <v>96200</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1">
         <v>75</v>
@@ -3216,7 +3213,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -3249,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="1">
         <v>75</v>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -3290,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="1">
         <v>75</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -3331,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="1">
         <v>75</v>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -3372,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" s="1">
         <v>90</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -3413,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="1">
         <v>75</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -3454,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28" s="1">
         <v>90</v>
@@ -3462,7 +3459,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -3495,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="1">
         <v>75</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="1">
         <v>75</v>
@@ -3544,7 +3541,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -3577,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="1">
         <v>90</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -3618,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M32" s="1">
         <v>90</v>
@@ -3626,7 +3623,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -3653,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="M33" s="1">
         <v>75</v>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -3700,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M34" s="1">
         <v>90</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -3741,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="1">
         <v>90</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -3782,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M36" s="1">
         <v>75</v>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -3823,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M37" s="1">
         <v>90</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -3864,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M38" s="1">
         <v>90</v>
@@ -3872,7 +3869,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -3905,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="1">
         <v>90</v>
@@ -3913,7 +3910,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -3946,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M40" s="1">
         <v>90</v>
@@ -3954,7 +3951,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -3981,13 +3978,13 @@
         <v>1720000</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1">
         <v>75</v>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -4028,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M42" s="1">
         <v>90</v>
@@ -4036,7 +4033,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -4069,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M43" s="1">
         <v>75</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -4110,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M44" s="1">
         <v>90</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -4151,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M45" s="1">
         <v>90</v>
@@ -4159,7 +4156,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -4192,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M46" s="1">
         <v>90</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -4233,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M47" s="1">
         <v>90</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -4274,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M48" s="1">
         <v>90</v>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -4315,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M49" s="1">
         <v>75</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -4356,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M50" s="1">
         <v>90</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -4397,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M51" s="1">
         <v>75</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -4438,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M52" s="1">
         <v>90</v>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -4479,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M53" s="1">
         <v>90</v>
@@ -4487,7 +4484,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -4520,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M54" s="1">
         <v>90</v>
@@ -4528,7 +4525,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -4561,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M55" s="1">
         <v>90</v>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -4602,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M56" s="1">
         <v>75</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -4643,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M57" s="1">
         <v>90</v>
@@ -4651,7 +4648,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -4684,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M58" s="1">
         <v>90</v>
@@ -4692,7 +4689,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -4725,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M59" s="1">
         <v>90</v>
@@ -4733,7 +4730,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -4766,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M60" s="1">
         <v>90</v>
@@ -4774,7 +4771,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -4807,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M61" s="1">
         <v>90</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -4848,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M62" s="1">
         <v>90</v>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -4889,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M63" s="1">
         <v>75</v>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -4930,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M64" s="1">
         <v>90</v>
@@ -4938,7 +4935,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -4971,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M65" s="1">
         <v>90</v>
@@ -4979,7 +4976,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -5012,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M66" s="1">
         <v>90</v>
@@ -5020,7 +5017,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -5053,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M67" s="1">
         <v>75</v>
@@ -5061,7 +5058,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -5094,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M68" s="1">
         <v>90</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -5135,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M69" s="1">
         <v>90</v>
@@ -5143,7 +5140,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -5176,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M70" s="1">
         <v>90</v>
@@ -5184,7 +5181,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -5217,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M71" s="1">
         <v>90</v>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -5258,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M72" s="1">
         <v>75</v>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -5299,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M73" s="1">
         <v>75</v>
@@ -5307,7 +5304,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -5340,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M74" s="1">
         <v>90</v>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -5381,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M75" s="1">
         <v>90</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -5416,13 +5413,13 @@
         <v>20300000</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M76" s="1">
         <v>75</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -5463,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M77" s="1">
         <v>75</v>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -5504,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M78" s="1">
         <v>75</v>
@@ -5512,7 +5509,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -5545,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M79" s="1">
         <v>90</v>
@@ -5553,7 +5550,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
@@ -5586,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M80" s="1">
         <v>90</v>
@@ -5594,7 +5591,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -5627,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M81" s="1">
         <v>90</v>
@@ -5635,7 +5632,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
@@ -5668,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M82" s="1">
         <v>90</v>
@@ -5676,7 +5673,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -5709,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M83" s="1">
         <v>90</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -5750,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M84" s="1">
         <v>90</v>
@@ -5758,7 +5755,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -5791,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M85" s="1">
         <v>90</v>
@@ -5799,7 +5796,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -5832,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M86" s="1">
         <v>90</v>
@@ -5840,7 +5837,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1</v>
@@ -5873,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M87" s="1">
         <v>75</v>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
@@ -5914,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M88" s="1">
         <v>90</v>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -5955,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M89" s="1">
         <v>90</v>
@@ -5963,7 +5960,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -5996,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M90" s="1">
         <v>75</v>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -6037,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M91" s="1">
         <v>90</v>
@@ -6045,7 +6042,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -6078,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M92" s="1">
         <v>75</v>
@@ -6086,7 +6083,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
@@ -6119,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M93" s="1">
         <v>90</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
@@ -6160,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M94" s="1">
         <v>75</v>
@@ -6168,7 +6165,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -6195,13 +6192,13 @@
         <v>351000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M95" s="1">
         <v>75</v>
@@ -6209,7 +6206,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
@@ -6242,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M96" s="1">
         <v>90</v>
@@ -6250,7 +6247,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
@@ -6283,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M97" s="1">
         <v>90</v>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -6318,13 +6315,13 @@
         <v>3850000</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M98" s="1">
         <v>90</v>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -6365,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M99" s="1">
         <v>90</v>
@@ -6373,7 +6370,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
@@ -6406,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M100" s="1">
         <v>90</v>
@@ -6414,7 +6411,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -6447,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M101" s="1">
         <v>90</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -6488,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M102" s="1">
         <v>90</v>
@@ -6496,7 +6493,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -6529,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M103" s="1">
         <v>90</v>
@@ -6537,7 +6534,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -6570,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M104" s="1">
         <v>90</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1</v>
@@ -6611,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M105" s="1">
         <v>90</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -6652,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M106" s="1">
         <v>90</v>
@@ -6660,7 +6657,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -6693,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M107" s="1">
         <v>90</v>
@@ -6701,7 +6698,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1</v>
@@ -6734,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M108" s="1">
         <v>90</v>
@@ -6742,7 +6739,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -6769,13 +6766,13 @@
         <v>9780000</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M109" s="1">
         <v>90</v>
@@ -6783,7 +6780,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -6816,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M110" s="1">
         <v>90</v>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1</v>
@@ -6857,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M111" s="1">
         <v>90</v>
@@ -6865,7 +6862,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -6898,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M112" s="1">
         <v>90</v>
@@ -6906,7 +6903,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -6939,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M113" s="1">
         <v>90</v>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
@@ -6980,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M114" s="1">
         <v>90</v>
@@ -6988,7 +6985,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -7021,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M115" s="1">
         <v>90</v>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -7062,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M116" s="1">
         <v>75</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -7097,13 +7094,13 @@
         <v>467000</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M117" s="1">
         <v>75</v>
@@ -7111,7 +7108,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -7144,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M118" s="1">
         <v>90</v>
@@ -7152,7 +7149,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
@@ -7185,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M119" s="1">
         <v>90</v>
@@ -7193,7 +7190,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1</v>
@@ -7226,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M120" s="1">
         <v>75</v>
@@ -7234,7 +7231,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -7267,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M121" s="1">
         <v>75</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1</v>
@@ -7308,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M122" s="1">
         <v>90</v>
@@ -7316,7 +7313,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -7349,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M123" s="1">
         <v>90</v>
@@ -7357,7 +7354,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
@@ -7390,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M124" s="1">
         <v>75</v>
@@ -7398,7 +7395,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1</v>
@@ -7431,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M125" s="1">
         <v>90</v>
@@ -7439,7 +7436,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1</v>
@@ -7466,13 +7463,13 @@
         <v>404000</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M126" s="1">
         <v>90</v>
@@ -7480,7 +7477,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1</v>
@@ -7513,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M127" s="1">
         <v>90</v>
@@ -7521,7 +7518,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
@@ -7554,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M128" s="1">
         <v>90</v>
@@ -7562,7 +7559,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -7595,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M129" s="1">
         <v>90</v>
@@ -7603,7 +7600,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1</v>
@@ -7636,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M130" s="1">
         <v>90</v>
@@ -7644,7 +7641,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -7677,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M131" s="1">
         <v>90</v>
@@ -7685,7 +7682,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1</v>
@@ -7718,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M132" s="1">
         <v>90</v>
@@ -7726,7 +7723,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -7759,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M133" s="1">
         <v>75</v>
@@ -7767,7 +7764,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1</v>
@@ -7800,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M134" s="1">
         <v>90</v>
@@ -7808,7 +7805,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1</v>
@@ -7841,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M135" s="1">
         <v>90</v>
@@ -7849,7 +7846,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1</v>
@@ -7882,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M136" s="1">
         <v>90</v>
@@ -7890,7 +7887,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1</v>
@@ -7923,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M137" s="1">
         <v>75</v>
@@ -7931,7 +7928,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1</v>
@@ -7964,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M138" s="1">
         <v>75</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -8005,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M139" s="1">
         <v>90</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1</v>
@@ -8046,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M140" s="1">
         <v>75</v>
@@ -8054,7 +8051,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1</v>
@@ -8087,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M141" s="1">
         <v>75</v>
@@ -8095,7 +8092,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
@@ -8128,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M142" s="1">
         <v>90</v>
@@ -8136,7 +8133,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
@@ -8169,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M143" s="1">
         <v>90</v>
@@ -8177,7 +8174,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1</v>
@@ -8210,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M144" s="1">
         <v>75</v>
@@ -8218,7 +8215,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
@@ -8251,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M145" s="1">
         <v>90</v>
@@ -8259,7 +8256,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1</v>
@@ -8292,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M146" s="1">
         <v>90</v>
@@ -8300,7 +8297,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -8333,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M147" s="1">
         <v>90</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1</v>
@@ -8374,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M148" s="1">
         <v>75</v>
@@ -8382,7 +8379,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
@@ -8415,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M149" s="1">
         <v>90</v>
@@ -8423,7 +8420,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
@@ -8456,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M150" s="1">
         <v>90</v>
@@ -8464,7 +8461,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1</v>
@@ -8497,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M151" s="1">
         <v>90</v>
@@ -8505,7 +8502,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
@@ -8538,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M152" s="1">
         <v>75</v>
@@ -8546,7 +8543,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1</v>
@@ -8579,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M153" s="1">
         <v>90</v>
@@ -8587,7 +8584,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1</v>
@@ -8620,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M154" s="1">
         <v>75</v>
@@ -8628,7 +8625,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
@@ -8661,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M155" s="1">
         <v>90</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1</v>
@@ -8702,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M156" s="1">
         <v>90</v>
@@ -8710,7 +8707,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1</v>
@@ -8743,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M157" s="1">
         <v>90</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1</v>
@@ -8778,13 +8775,13 @@
         <v>117000</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M158" s="1">
         <v>90</v>
@@ -8792,7 +8789,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1</v>
@@ -8825,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M159" s="1">
         <v>90</v>
@@ -8833,7 +8830,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1</v>
@@ -8866,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M160" s="1">
         <v>75</v>
@@ -8874,7 +8871,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
@@ -8907,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M161" s="1">
         <v>90</v>
@@ -8915,7 +8912,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
@@ -8948,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M162" s="1">
         <v>75</v>
@@ -8956,7 +8953,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -8983,13 +8980,13 @@
         <v>0</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M163" s="1">
         <v>90</v>
@@ -8997,7 +8994,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
@@ -9030,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M164" s="1">
         <v>90</v>
@@ -9038,7 +9035,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M165" s="1">
         <v>90</v>
@@ -9079,7 +9076,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -9112,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M166" s="1">
         <v>90</v>
@@ -9120,7 +9117,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -9153,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M167" s="1">
         <v>75</v>
@@ -9161,7 +9158,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -9194,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M168" s="1">
         <v>90</v>
@@ -9202,7 +9199,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
@@ -9235,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M169" s="1">
         <v>75</v>
@@ -9243,7 +9240,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -9276,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M170" s="1">
         <v>90</v>
@@ -9284,7 +9281,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -9317,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M171" s="1">
         <v>90</v>
@@ -9325,7 +9322,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -9358,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M172" s="1">
         <v>90</v>
@@ -9366,7 +9363,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
@@ -9399,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M173" s="1">
         <v>90</v>
@@ -9407,7 +9404,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1</v>
@@ -9440,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M174" s="1">
         <v>90</v>
@@ -9448,7 +9445,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -9481,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M175" s="1">
         <v>90</v>
@@ -9489,7 +9486,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -9522,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M176" s="1">
         <v>90</v>
@@ -9530,7 +9527,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -9563,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M177" s="1">
         <v>75</v>
@@ -9571,7 +9568,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -9604,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M178" s="1">
         <v>90</v>
@@ -9612,7 +9609,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -9645,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M179" s="1">
         <v>75</v>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
@@ -9680,13 +9677,13 @@
         <v>16200000</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M180" s="1">
         <v>90</v>
@@ -9694,7 +9691,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -9727,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M181" s="1">
         <v>75</v>
@@ -9735,7 +9732,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -9768,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M182" s="1">
         <v>90</v>
@@ -9776,7 +9773,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1</v>
@@ -9803,13 +9800,13 @@
         <v>394000</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M183" s="1">
         <v>90</v>
@@ -9817,7 +9814,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -9850,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M184" s="1">
         <v>90</v>
@@ -9858,7 +9855,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
@@ -9891,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M185" s="1">
         <v>90</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -9932,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M186" s="1">
         <v>90</v>
@@ -9940,7 +9937,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
@@ -9973,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M187" s="1">
         <v>90</v>
@@ -9981,7 +9978,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
@@ -10014,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M188" s="1">
         <v>90</v>
@@ -10022,7 +10019,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -10055,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M189" s="1">
         <v>75</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -10096,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M190" s="1">
         <v>90</v>
@@ -10104,7 +10101,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
@@ -10137,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M191" s="1">
         <v>90</v>
@@ -10145,7 +10142,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -10178,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M192" s="1">
         <v>90</v>
@@ -10186,7 +10183,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1</v>
@@ -10219,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M193" s="1">
         <v>90</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
@@ -10260,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M194" s="1">
         <v>90</v>
@@ -10268,7 +10265,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1</v>
@@ -10301,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M195" s="1">
         <v>90</v>
@@ -10309,7 +10306,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
@@ -10342,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M196" s="1">
         <v>90</v>
@@ -10350,7 +10347,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1</v>
@@ -10383,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M197" s="1">
         <v>90</v>
@@ -10391,7 +10388,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1</v>
@@ -10424,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M198" s="1">
         <v>75</v>
@@ -10432,7 +10429,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>1</v>
@@ -10465,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M199" s="1">
         <v>90</v>
@@ -10473,7 +10470,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>1</v>
@@ -10506,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M200" s="1">
         <v>90</v>
@@ -10514,7 +10511,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1</v>
@@ -10547,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M201" s="1">
         <v>90</v>
@@ -10555,7 +10552,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1</v>
@@ -10588,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M202" s="1">
         <v>90</v>
@@ -10596,7 +10593,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1</v>
@@ -10629,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M203" s="1">
         <v>90</v>
@@ -10637,7 +10634,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1</v>
@@ -10670,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M204" s="1">
         <v>90</v>
@@ -10678,7 +10675,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>1</v>
@@ -10711,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M205" s="1">
         <v>75</v>
@@ -10719,7 +10716,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>1</v>
@@ -10752,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M206" s="1">
         <v>75</v>
@@ -10760,7 +10757,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1</v>
@@ -10793,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M207" s="1">
         <v>90</v>
@@ -10801,7 +10798,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>1</v>
@@ -10828,13 +10825,13 @@
         <v>79</v>
       </c>
       <c r="J208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="K208" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="M208" s="1">
         <v>90</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>1</v>
@@ -10875,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M209" s="1">
         <v>75</v>
@@ -10883,7 +10880,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>1</v>
@@ -10916,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M210" s="1">
         <v>90</v>
@@ -10924,7 +10921,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>1</v>
@@ -10957,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M211" s="1">
         <v>90</v>
@@ -10965,7 +10962,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>1</v>
@@ -10998,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M212" s="1">
         <v>75</v>
@@ -11006,7 +11003,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>1</v>
@@ -11039,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M213" s="1">
         <v>90</v>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>1</v>
@@ -11080,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M214" s="1">
         <v>75</v>
@@ -11088,7 +11085,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1</v>
@@ -11121,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M215" s="1">
         <v>75</v>
@@ -11129,7 +11126,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1</v>
@@ -11162,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M216" s="1">
         <v>90</v>
@@ -11170,7 +11167,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>1</v>
@@ -11203,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M217" s="1">
         <v>90</v>
@@ -11211,7 +11208,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>1</v>
@@ -11244,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M218" s="1">
         <v>90</v>
@@ -11252,7 +11249,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
@@ -11285,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M219" s="1">
         <v>90</v>
@@ -11293,7 +11290,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1</v>
@@ -11326,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M220" s="1">
         <v>90</v>
@@ -11334,7 +11331,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1</v>
@@ -11367,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M221" s="1">
         <v>90</v>
@@ -11375,7 +11372,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1</v>
@@ -11402,13 +11399,13 @@
         <v>4320000</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M222" s="1">
         <v>75</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1</v>
@@ -11449,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M223" s="1">
         <v>90</v>
@@ -11457,7 +11454,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1</v>
@@ -11490,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M224" s="1">
         <v>75</v>
@@ -11498,7 +11495,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1</v>
@@ -11531,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M225" s="1">
         <v>90</v>
@@ -11539,7 +11536,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1</v>
@@ -11572,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M226" s="1">
         <v>90</v>
@@ -11580,7 +11577,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1</v>
@@ -11613,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M227" s="1">
         <v>90</v>
@@ -11621,7 +11618,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1</v>
@@ -11654,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M228" s="1">
         <v>90</v>
@@ -11662,7 +11659,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1</v>
@@ -11689,13 +11686,13 @@
         <v>12200000</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M229" s="1">
         <v>90</v>
@@ -11703,7 +11700,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1</v>
@@ -11736,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M230" s="1">
         <v>90</v>
@@ -11744,7 +11741,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1</v>
@@ -11771,13 +11768,13 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M231" s="1">
         <v>75</v>
@@ -11785,7 +11782,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1</v>
@@ -11812,13 +11809,13 @@
         <v>10700000</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M232" s="1">
         <v>90</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1</v>
@@ -11859,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M233" s="1">
         <v>90</v>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1</v>
@@ -11900,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M234" s="1">
         <v>90</v>
@@ -11908,7 +11905,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
@@ -11941,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M235" s="1">
         <v>90</v>
@@ -11949,7 +11946,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1</v>
@@ -11982,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M236" s="1">
         <v>75</v>
@@ -11990,7 +11987,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1</v>
@@ -12023,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M237" s="1">
         <v>90</v>
@@ -12031,7 +12028,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
@@ -12064,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M238" s="1">
         <v>90</v>
@@ -12072,7 +12069,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1</v>
@@ -12105,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M239" s="1">
         <v>90</v>
@@ -12113,7 +12110,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
@@ -12140,13 +12137,13 @@
         <v>15000000</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M240" s="1">
         <v>90</v>
@@ -12154,7 +12151,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1</v>
@@ -12181,13 +12178,13 @@
         <v>2290000</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M241" s="1">
         <v>90</v>
@@ -12195,7 +12192,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
@@ -12228,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M242" s="1">
         <v>90</v>
@@ -12236,7 +12233,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1</v>
@@ -12269,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M243" s="1">
         <v>90</v>
@@ -12277,7 +12274,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1</v>
@@ -12310,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M244" s="1">
         <v>90</v>
@@ -12318,7 +12315,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1</v>
@@ -12351,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M245" s="1">
         <v>90</v>
@@ -12359,7 +12356,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1</v>
@@ -12386,13 +12383,13 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M246" s="1">
         <v>90</v>
@@ -12400,7 +12397,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1</v>
@@ -12433,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M247" s="1">
         <v>90</v>
@@ -12441,7 +12438,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1</v>
@@ -12474,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M248" s="1">
         <v>75</v>
@@ -12482,7 +12479,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1</v>
@@ -12515,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M249" s="1">
         <v>90</v>
@@ -12523,7 +12520,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1</v>
@@ -12556,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M250" s="1">
         <v>90</v>
@@ -12564,7 +12561,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M251" s="1">
         <v>75</v>
@@ -12605,7 +12602,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
@@ -12632,13 +12629,13 @@
         <v>23700000</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M252" s="1">
         <v>60</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1</v>
@@ -12679,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M253" s="1">
         <v>90</v>
@@ -12687,7 +12684,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1</v>
@@ -12720,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M254" s="1">
         <v>90</v>
@@ -12728,7 +12725,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1</v>
@@ -12761,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M255" s="1">
         <v>90</v>
@@ -12769,7 +12766,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1</v>
@@ -12802,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M256" s="1">
         <v>75</v>
@@ -12810,7 +12807,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1</v>
@@ -12843,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M257" s="1">
         <v>90</v>
@@ -12851,7 +12848,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1</v>
@@ -12878,13 +12875,13 @@
         <v>12900000</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M258" s="1">
         <v>75</v>
@@ -12892,7 +12889,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>1</v>
@@ -12925,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M259" s="1">
         <v>90</v>
@@ -12933,7 +12930,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1</v>
@@ -12966,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M260" s="1">
         <v>90</v>
@@ -12974,7 +12971,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>1</v>
@@ -13007,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M261" s="1">
         <v>90</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>1</v>
@@ -13048,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M262" s="1">
         <v>75</v>
@@ -13056,7 +13053,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1</v>
@@ -13089,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M263" s="1">
         <v>90</v>
@@ -13097,7 +13094,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>1</v>
@@ -13130,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M264" s="1">
         <v>75</v>
@@ -13138,7 +13135,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>1</v>
@@ -13165,13 +13162,13 @@
         <v>14000000</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M265" s="1">
         <v>90</v>
@@ -13179,7 +13176,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>1</v>
@@ -13212,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M266" s="1">
         <v>90</v>
@@ -13220,7 +13217,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>1</v>
@@ -13253,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M267" s="1">
         <v>90</v>
@@ -13261,7 +13258,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>1</v>
@@ -13294,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M268" s="1">
         <v>90</v>
@@ -13302,7 +13299,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>1</v>
@@ -13335,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M269" s="1">
         <v>75</v>
@@ -13343,7 +13340,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>1</v>
@@ -13376,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M270" s="1">
         <v>90</v>
@@ -13384,7 +13381,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1</v>
@@ -13417,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M271" s="1">
         <v>90</v>
@@ -13425,7 +13422,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>1</v>
@@ -13458,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M272" s="1">
         <v>75</v>
@@ -13466,7 +13463,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>1</v>
@@ -13499,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M273" s="1">
         <v>75</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1</v>
@@ -13540,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M274" s="1">
         <v>90</v>
@@ -13548,7 +13545,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>1</v>
@@ -13581,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M275" s="1">
         <v>75</v>
@@ -13589,7 +13586,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>1</v>
@@ -13622,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M276" s="1">
         <v>90</v>
@@ -13630,7 +13627,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>1</v>
@@ -13663,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M277" s="1">
         <v>75</v>
@@ -13671,7 +13668,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>1</v>
@@ -13704,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M278" s="1">
         <v>75</v>
@@ -13712,7 +13709,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>1</v>
@@ -13745,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M279" s="1">
         <v>90</v>
@@ -13753,7 +13750,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>1</v>
@@ -13786,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M280" s="1">
         <v>75</v>
@@ -13794,7 +13791,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1</v>
@@ -13827,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M281" s="1">
         <v>90</v>
@@ -13835,7 +13832,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>1</v>
@@ -13868,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M282" s="1">
         <v>90</v>
@@ -13876,7 +13873,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>1</v>
@@ -13909,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M283" s="1">
         <v>90</v>
@@ -13944,13 +13941,13 @@
         <v>21100000</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M284" s="1">
         <v>60</v>
@@ -13958,7 +13955,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>1</v>
@@ -13991,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M285" s="1">
         <v>90</v>
@@ -13999,7 +13996,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1</v>
@@ -14032,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M286" s="1">
         <v>90</v>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>1</v>
@@ -14073,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M287" s="1">
         <v>90</v>
@@ -14081,7 +14078,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>1</v>
@@ -14114,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M288" s="1">
         <v>75</v>
@@ -14122,7 +14119,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>1</v>
@@ -14155,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M289" s="1">
         <v>90</v>
@@ -14163,7 +14160,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>1</v>
@@ -14196,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M290" s="1">
         <v>90</v>
@@ -14204,7 +14201,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>1</v>
@@ -14237,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M291" s="1">
         <v>90</v>
@@ -14245,7 +14242,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>1</v>
@@ -14278,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M292" s="1">
         <v>75</v>
@@ -14286,7 +14283,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>1</v>
@@ -14319,7 +14316,7 @@
         <v>1</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M293" s="1">
         <v>75</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1</v>
@@ -14360,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M294" s="1">
         <v>90</v>
@@ -14368,7 +14365,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>1</v>
@@ -14401,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M295" s="1">
         <v>75</v>
@@ -14409,7 +14406,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>1</v>
@@ -14442,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M296" s="1">
         <v>75</v>
@@ -14450,7 +14447,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>1</v>
@@ -14477,13 +14474,13 @@
         <v>1720000</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M297" s="1">
         <v>90</v>
@@ -14491,7 +14488,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>1</v>
@@ -14524,7 +14521,7 @@
         <v>1</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M298" s="1">
         <v>75</v>
@@ -14532,7 +14529,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>1</v>
@@ -14565,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M299" s="1">
         <v>75</v>
@@ -14573,7 +14570,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1</v>
@@ -14606,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M300" s="1">
         <v>90</v>
@@ -14614,7 +14611,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1</v>
@@ -14647,7 +14644,7 @@
         <v>1</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M301" s="1">
         <v>90</v>
